--- a/data/pca/factorExposure/factorExposure_2018-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01772810326368911</v>
+        <v>0.01943104081598453</v>
       </c>
       <c r="C2">
-        <v>0.03629448651825484</v>
+        <v>-0.01644355743868579</v>
       </c>
       <c r="D2">
-        <v>0.01854643261369743</v>
+        <v>0.02911463273784007</v>
       </c>
       <c r="E2">
-        <v>-0.003265084884806367</v>
+        <v>0.01830806614125075</v>
       </c>
       <c r="F2">
-        <v>-0.1250422407874256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.00529935291605865</v>
+      </c>
+      <c r="G2">
+        <v>-0.04781634740917898</v>
+      </c>
+      <c r="H2">
+        <v>0.04852946458157632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08923505113329878</v>
+        <v>0.07702620975133852</v>
       </c>
       <c r="C3">
-        <v>0.01900738099484929</v>
+        <v>0.01566666212427303</v>
       </c>
       <c r="D3">
-        <v>0.08662605498094812</v>
+        <v>0.06771410591315996</v>
       </c>
       <c r="E3">
-        <v>-0.08167362904925116</v>
+        <v>0.01000277693777014</v>
       </c>
       <c r="F3">
-        <v>-0.4107370443907493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01659580752207821</v>
+      </c>
+      <c r="G3">
+        <v>-0.1763506224699064</v>
+      </c>
+      <c r="H3">
+        <v>0.1563137463907567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04665063573821253</v>
+        <v>0.04458139380840898</v>
       </c>
       <c r="C4">
-        <v>0.0008199644341767834</v>
+        <v>-0.001121439035029782</v>
       </c>
       <c r="D4">
-        <v>0.007370017238134435</v>
+        <v>0.05965304593028001</v>
       </c>
       <c r="E4">
-        <v>0.05499298249171873</v>
+        <v>-0.01727196012147525</v>
       </c>
       <c r="F4">
-        <v>-0.08440797643151433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0448864874919208</v>
+      </c>
+      <c r="G4">
+        <v>-0.04085181412715767</v>
+      </c>
+      <c r="H4">
+        <v>0.05884870371171418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03593069916095825</v>
+        <v>0.0255430345612235</v>
       </c>
       <c r="C6">
-        <v>0.01108026224340775</v>
+        <v>0.001982556101875703</v>
       </c>
       <c r="D6">
-        <v>0.008489728742387959</v>
+        <v>0.06144086530033897</v>
       </c>
       <c r="E6">
-        <v>0.02712915221832474</v>
+        <v>-0.00335396470600897</v>
       </c>
       <c r="F6">
-        <v>-0.01427934942186789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03046882372997239</v>
+      </c>
+      <c r="G6">
+        <v>-0.01042359055481888</v>
+      </c>
+      <c r="H6">
+        <v>0.06276330982578149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02000697936203366</v>
+        <v>0.02033090915959406</v>
       </c>
       <c r="C7">
-        <v>-0.001008535106729273</v>
+        <v>-0.0008130815665686288</v>
       </c>
       <c r="D7">
-        <v>0.02168006729991988</v>
+        <v>0.03180672478151381</v>
       </c>
       <c r="E7">
-        <v>0.02963199432155212</v>
+        <v>-0.04173377264585528</v>
       </c>
       <c r="F7">
-        <v>-0.05759155697216514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.002937550301940992</v>
+      </c>
+      <c r="G7">
+        <v>-0.0266979742340454</v>
+      </c>
+      <c r="H7">
+        <v>0.04318449938431006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01740785366534028</v>
+        <v>0.004784183401333726</v>
       </c>
       <c r="C8">
-        <v>0.0084065357692709</v>
+        <v>0.002562202775254476</v>
       </c>
       <c r="D8">
-        <v>0.01879419691862299</v>
+        <v>0.01471783957604627</v>
       </c>
       <c r="E8">
-        <v>0.03979462196990879</v>
+        <v>-0.005051931380026779</v>
       </c>
       <c r="F8">
-        <v>-0.1004464043424178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01843100686717004</v>
+      </c>
+      <c r="G8">
+        <v>-0.04331130608003995</v>
+      </c>
+      <c r="H8">
+        <v>0.04351225907367065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03597844826542876</v>
+        <v>0.03510744875407888</v>
       </c>
       <c r="C9">
-        <v>0.00598438254080036</v>
+        <v>0.001419786086131469</v>
       </c>
       <c r="D9">
-        <v>0.01372993114781254</v>
+        <v>0.04314908333889566</v>
       </c>
       <c r="E9">
-        <v>0.0402006230741134</v>
+        <v>-0.007505931970625187</v>
       </c>
       <c r="F9">
-        <v>-0.09945859292305588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02111198671174547</v>
+      </c>
+      <c r="G9">
+        <v>-0.04621643681577008</v>
+      </c>
+      <c r="H9">
+        <v>0.057498632846192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03577346454980086</v>
+        <v>0.1123672736283312</v>
       </c>
       <c r="C10">
-        <v>-0.05950953128031236</v>
+        <v>-0.001030497729366534</v>
       </c>
       <c r="D10">
-        <v>-0.08089598523580277</v>
+        <v>-0.1632945835767414</v>
       </c>
       <c r="E10">
-        <v>-0.1241055337360404</v>
+        <v>-0.001794731014601467</v>
       </c>
       <c r="F10">
-        <v>-0.0592351180825075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03527828633881461</v>
+      </c>
+      <c r="G10">
+        <v>-0.03360874086905492</v>
+      </c>
+      <c r="H10">
+        <v>0.004539768966736938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03277396009636173</v>
+        <v>0.02101564244621772</v>
       </c>
       <c r="C11">
-        <v>0.02306022995441434</v>
+        <v>0.01285509809608892</v>
       </c>
       <c r="D11">
-        <v>0.01911034547950329</v>
+        <v>0.04722573914519413</v>
       </c>
       <c r="E11">
-        <v>0.0308181086363118</v>
+        <v>0.001886083911681538</v>
       </c>
       <c r="F11">
-        <v>-0.05283100826043198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01215005140881942</v>
+      </c>
+      <c r="G11">
+        <v>-0.02714343908234524</v>
+      </c>
+      <c r="H11">
+        <v>0.05017806834483331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04040766948308157</v>
+        <v>0.0255661156229519</v>
       </c>
       <c r="C12">
-        <v>0.02341286198254561</v>
+        <v>0.009263482213012625</v>
       </c>
       <c r="D12">
-        <v>0.01084057131254959</v>
+        <v>0.04601443751349847</v>
       </c>
       <c r="E12">
-        <v>0.03657081146035828</v>
+        <v>-0.008261266911673549</v>
       </c>
       <c r="F12">
-        <v>-0.02346353877502852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01510107122349714</v>
+      </c>
+      <c r="G12">
+        <v>-0.007489289357180748</v>
+      </c>
+      <c r="H12">
+        <v>0.02139042148195807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01700584558963417</v>
+        <v>0.02676572365994549</v>
       </c>
       <c r="C13">
-        <v>0.02280272762906683</v>
+        <v>-0.0124110954035406</v>
       </c>
       <c r="D13">
-        <v>0.001295701311265434</v>
+        <v>0.02204447690142455</v>
       </c>
       <c r="E13">
-        <v>0.004996300877388522</v>
+        <v>0.01209134608571162</v>
       </c>
       <c r="F13">
-        <v>-0.09152125556335716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02244967111552567</v>
+      </c>
+      <c r="G13">
+        <v>-0.06180913297905279</v>
+      </c>
+      <c r="H13">
+        <v>0.07605784809609917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01735954237087152</v>
+        <v>0.01750076394425461</v>
       </c>
       <c r="C14">
-        <v>0.001309558718719239</v>
+        <v>-4.871198845878916e-06</v>
       </c>
       <c r="D14">
-        <v>0.004672122073272756</v>
+        <v>0.01424125740683802</v>
       </c>
       <c r="E14">
-        <v>0.0319857171009405</v>
+        <v>-0.01388941744246933</v>
       </c>
       <c r="F14">
-        <v>-0.06254059452762889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01511461908472677</v>
+      </c>
+      <c r="G14">
+        <v>-0.0401538702253068</v>
+      </c>
+      <c r="H14">
+        <v>0.01323013481085075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03223226299401579</v>
+        <v>0.02312946206444467</v>
       </c>
       <c r="C16">
-        <v>0.02837374400676114</v>
+        <v>0.0121659390389431</v>
       </c>
       <c r="D16">
-        <v>0.01703508588465574</v>
+        <v>0.03881135873187213</v>
       </c>
       <c r="E16">
-        <v>0.03361477801895837</v>
+        <v>-0.001760689565443904</v>
       </c>
       <c r="F16">
-        <v>-0.05090615397907906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01574473954576498</v>
+      </c>
+      <c r="G16">
+        <v>-0.02242080966399657</v>
+      </c>
+      <c r="H16">
+        <v>0.03754028239023064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03364731686219756</v>
+        <v>0.02704760241934037</v>
       </c>
       <c r="C19">
-        <v>0.02400880429019138</v>
+        <v>0.001454195011121395</v>
       </c>
       <c r="D19">
-        <v>0.01937721953564842</v>
+        <v>0.0423215837439713</v>
       </c>
       <c r="E19">
-        <v>0.0272875888991509</v>
+        <v>-0.005553540025847847</v>
       </c>
       <c r="F19">
-        <v>-0.1016454872399397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02585947780293357</v>
+      </c>
+      <c r="G19">
+        <v>-0.0567445977916918</v>
+      </c>
+      <c r="H19">
+        <v>0.06319273581874564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002062758155241184</v>
+        <v>0.01005177381213403</v>
       </c>
       <c r="C20">
-        <v>-0.003291541879770785</v>
+        <v>-0.004105257830395507</v>
       </c>
       <c r="D20">
-        <v>0.005871461542700616</v>
+        <v>0.02201104806367559</v>
       </c>
       <c r="E20">
-        <v>0.02728573387194603</v>
+        <v>-0.003736887408295489</v>
       </c>
       <c r="F20">
-        <v>-0.0840668347811046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0150856959929991</v>
+      </c>
+      <c r="G20">
+        <v>-0.05563603553454273</v>
+      </c>
+      <c r="H20">
+        <v>0.02862214610657616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003860246649616491</v>
+        <v>0.01426922096451845</v>
       </c>
       <c r="C21">
-        <v>-0.01438167267656923</v>
+        <v>-0.005496308041683671</v>
       </c>
       <c r="D21">
-        <v>0.0283965369665446</v>
+        <v>0.02580607710541869</v>
       </c>
       <c r="E21">
-        <v>0.03219525538509874</v>
+        <v>-0.01907977985581592</v>
       </c>
       <c r="F21">
-        <v>-0.0430431130132088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.008463912486137093</v>
+      </c>
+      <c r="G21">
+        <v>-0.04809765839623339</v>
+      </c>
+      <c r="H21">
+        <v>0.04231150466992247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02969970041727574</v>
+        <v>0.01812335402165547</v>
       </c>
       <c r="C24">
-        <v>0.01903209416935193</v>
+        <v>0.006770382399907327</v>
       </c>
       <c r="D24">
-        <v>0.005703114565621314</v>
+        <v>0.04234803097234726</v>
       </c>
       <c r="E24">
-        <v>0.01997057795650418</v>
+        <v>-0.0002105601215880572</v>
       </c>
       <c r="F24">
-        <v>-0.05007185161378368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01080471977872244</v>
+      </c>
+      <c r="G24">
+        <v>-0.01697685148960527</v>
+      </c>
+      <c r="H24">
+        <v>0.046647025191355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03163889306564883</v>
+        <v>0.03033655530629393</v>
       </c>
       <c r="C25">
-        <v>0.01778674130766001</v>
+        <v>0.004748850276664784</v>
       </c>
       <c r="D25">
-        <v>0.02171591032293963</v>
+        <v>0.04444670320673202</v>
       </c>
       <c r="E25">
-        <v>0.02844243551047336</v>
+        <v>-0.005578296366605486</v>
       </c>
       <c r="F25">
-        <v>-0.05274458657945112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0185152911659678</v>
+      </c>
+      <c r="G25">
+        <v>-0.02150461800996784</v>
+      </c>
+      <c r="H25">
+        <v>0.0433018827364355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01863547998400591</v>
+        <v>0.01635167116076739</v>
       </c>
       <c r="C26">
-        <v>0.01539282135590512</v>
+        <v>-0.018138353812033</v>
       </c>
       <c r="D26">
-        <v>0.02158836512923867</v>
+        <v>0.009987701449705294</v>
       </c>
       <c r="E26">
-        <v>0.003384656151229805</v>
+        <v>-0.0008315617040445881</v>
       </c>
       <c r="F26">
-        <v>-0.06819905444831653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002877502513511185</v>
+      </c>
+      <c r="G26">
+        <v>-0.02996603186987723</v>
+      </c>
+      <c r="H26">
+        <v>0.02478652787380978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04989072949901605</v>
+        <v>0.01983684105029928</v>
       </c>
       <c r="C27">
-        <v>0.0131217867601269</v>
+        <v>0.007827769164655694</v>
       </c>
       <c r="D27">
-        <v>-0.02199675397683457</v>
+        <v>0.01330339045144311</v>
       </c>
       <c r="E27">
-        <v>0.03649856954306395</v>
+        <v>-0.00463820737454726</v>
       </c>
       <c r="F27">
-        <v>-0.04088859814411284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01260137707179827</v>
+      </c>
+      <c r="G27">
+        <v>-0.009618765968156417</v>
+      </c>
+      <c r="H27">
+        <v>-0.003447957298118957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06286603701125162</v>
+        <v>0.1616766144200067</v>
       </c>
       <c r="C28">
-        <v>-0.08779827121966628</v>
+        <v>-0.01081088225952423</v>
       </c>
       <c r="D28">
-        <v>-0.1139290484795882</v>
+        <v>-0.2109911061836521</v>
       </c>
       <c r="E28">
-        <v>-0.1528587075294924</v>
+        <v>-0.01391689924285094</v>
       </c>
       <c r="F28">
-        <v>-0.05209798394206212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03045091735007278</v>
+      </c>
+      <c r="G28">
+        <v>-0.01992727171736973</v>
+      </c>
+      <c r="H28">
+        <v>-0.007530162811803383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02261821293553286</v>
+        <v>0.02253380147121233</v>
       </c>
       <c r="C29">
-        <v>0.0009955630661002098</v>
+        <v>0.001709192219770452</v>
       </c>
       <c r="D29">
-        <v>0.004743211058578948</v>
+        <v>0.01467595772108496</v>
       </c>
       <c r="E29">
-        <v>0.03933458231831842</v>
+        <v>-0.01418549884629663</v>
       </c>
       <c r="F29">
-        <v>-0.06123061637226136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01686614896247881</v>
+      </c>
+      <c r="G29">
+        <v>-0.03982241764937525</v>
+      </c>
+      <c r="H29">
+        <v>0.004580063013017712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08200898575218209</v>
+        <v>0.04901105568414671</v>
       </c>
       <c r="C30">
-        <v>0.04686115039243961</v>
+        <v>0.002527203509121074</v>
       </c>
       <c r="D30">
-        <v>0.007307874038830499</v>
+        <v>0.0907473321346618</v>
       </c>
       <c r="E30">
-        <v>0.06711182402530148</v>
+        <v>0.03331076162230947</v>
       </c>
       <c r="F30">
-        <v>-0.1098373487541719</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04947099695068721</v>
+      </c>
+      <c r="G30">
+        <v>-0.06041736587375512</v>
+      </c>
+      <c r="H30">
+        <v>0.07741219821180768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05962328882083818</v>
+        <v>0.04898184767239654</v>
       </c>
       <c r="C31">
-        <v>0.03300111497620086</v>
+        <v>0.01164885989159707</v>
       </c>
       <c r="D31">
-        <v>0.00710078899986826</v>
+        <v>0.02706948426739815</v>
       </c>
       <c r="E31">
-        <v>0.01721823245170979</v>
+        <v>0.004834001707151364</v>
       </c>
       <c r="F31">
-        <v>-0.05114222233246814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006325745451233817</v>
+      </c>
+      <c r="G31">
+        <v>-0.01957568630525992</v>
+      </c>
+      <c r="H31">
+        <v>0.003030750144329758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01792873201710099</v>
+        <v>0.01234566218102931</v>
       </c>
       <c r="C32">
-        <v>0.002822839024718604</v>
+        <v>0.01413496900590017</v>
       </c>
       <c r="D32">
-        <v>0.02381800358548649</v>
+        <v>0.01023850827813949</v>
       </c>
       <c r="E32">
-        <v>0.06978179091195406</v>
+        <v>-0.02830079221751579</v>
       </c>
       <c r="F32">
-        <v>-0.07629517616904981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03955227345145959</v>
+      </c>
+      <c r="G32">
+        <v>-0.03060458020105082</v>
+      </c>
+      <c r="H32">
+        <v>0.05646466826690263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04668586650775743</v>
+        <v>0.03115873896303501</v>
       </c>
       <c r="C33">
-        <v>0.03264950146052803</v>
+        <v>0.002247997400971859</v>
       </c>
       <c r="D33">
-        <v>0.04167573541007148</v>
+        <v>0.04367093339503084</v>
       </c>
       <c r="E33">
-        <v>0.02855591318543029</v>
+        <v>0.01979184192672133</v>
       </c>
       <c r="F33">
-        <v>-0.0851436164820422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.000952168357372309</v>
+      </c>
+      <c r="G33">
+        <v>-0.0470643003513838</v>
+      </c>
+      <c r="H33">
+        <v>0.05077183523241265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03052934196572398</v>
+        <v>0.02797827070896936</v>
       </c>
       <c r="C34">
-        <v>0.02468753452896538</v>
+        <v>0.02053236194023715</v>
       </c>
       <c r="D34">
-        <v>0.0171905172605972</v>
+        <v>0.04101596823127522</v>
       </c>
       <c r="E34">
-        <v>0.03712700919916459</v>
+        <v>-0.0119646046362906</v>
       </c>
       <c r="F34">
-        <v>-0.05896568408058073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01832822239530746</v>
+      </c>
+      <c r="G34">
+        <v>-0.01393132803620546</v>
+      </c>
+      <c r="H34">
+        <v>0.03687882022745018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01512069158334272</v>
+        <v>0.01730591066304987</v>
       </c>
       <c r="C36">
-        <v>-0.001932752120634055</v>
+        <v>-0.005919837311091664</v>
       </c>
       <c r="D36">
-        <v>0.008016705749283421</v>
+        <v>0.005538984341182645</v>
       </c>
       <c r="E36">
-        <v>0.02416181439069703</v>
+        <v>-0.00902905476064317</v>
       </c>
       <c r="F36">
-        <v>-0.03865852191490247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002877668640052247</v>
+      </c>
+      <c r="G36">
+        <v>-0.02091943220206652</v>
+      </c>
+      <c r="H36">
+        <v>0.01688009010776044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004884600855822884</v>
+        <v>0.02546494223067682</v>
       </c>
       <c r="C38">
-        <v>0.0006158863118136928</v>
+        <v>0.01629762331378683</v>
       </c>
       <c r="D38">
-        <v>0.01740525343115945</v>
+        <v>0.01312290028010384</v>
       </c>
       <c r="E38">
-        <v>-0.02485204998427301</v>
+        <v>0.001277899483477605</v>
       </c>
       <c r="F38">
-        <v>-0.0450773021496049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009050750246892204</v>
+      </c>
+      <c r="G38">
+        <v>-0.02298441300312698</v>
+      </c>
+      <c r="H38">
+        <v>0.04528029338358112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03246289206950308</v>
+        <v>0.01549145866840829</v>
       </c>
       <c r="C39">
-        <v>0.03606964516104379</v>
+        <v>0.01056972433295046</v>
       </c>
       <c r="D39">
-        <v>0.02464265471610183</v>
+        <v>0.08728775592786613</v>
       </c>
       <c r="E39">
-        <v>0.04092404281512297</v>
+        <v>0.008688530792529551</v>
       </c>
       <c r="F39">
-        <v>-0.06932386639419989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01817383640959443</v>
+      </c>
+      <c r="G39">
+        <v>-0.03939061189435592</v>
+      </c>
+      <c r="H39">
+        <v>0.07733206295065899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03492930095667075</v>
+        <v>0.03081817233947819</v>
       </c>
       <c r="C40">
-        <v>0.06586775772645402</v>
+        <v>0.002689536775313133</v>
       </c>
       <c r="D40">
-        <v>-0.009164410600815426</v>
+        <v>0.03271868781978935</v>
       </c>
       <c r="E40">
-        <v>0.01328959971163302</v>
+        <v>0.02542383719685217</v>
       </c>
       <c r="F40">
-        <v>-0.09724959706633932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03602677503139795</v>
+      </c>
+      <c r="G40">
+        <v>-0.0229591582612671</v>
+      </c>
+      <c r="H40">
+        <v>0.06996870959972042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002461891686675748</v>
+        <v>0.01162799817599514</v>
       </c>
       <c r="C41">
-        <v>-7.758279920564149e-05</v>
+        <v>-0.003335740831554028</v>
       </c>
       <c r="D41">
-        <v>0.009302954105566761</v>
+        <v>-0.01354864642405643</v>
       </c>
       <c r="E41">
-        <v>0.001086314843256593</v>
+        <v>-0.001556634676423352</v>
       </c>
       <c r="F41">
-        <v>-0.01702631427325906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.002913964372470255</v>
+      </c>
+      <c r="G41">
+        <v>-0.0008627260336398235</v>
+      </c>
+      <c r="H41">
+        <v>-0.003493146429613164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3320290168054605</v>
+        <v>0.1551212397500169</v>
       </c>
       <c r="C42">
-        <v>-0.04696623050714691</v>
+        <v>-0.06249591603595143</v>
       </c>
       <c r="D42">
-        <v>0.6880684048796246</v>
+        <v>0.2369886229581972</v>
       </c>
       <c r="E42">
-        <v>-0.4944426083639386</v>
+        <v>0.2252933530443001</v>
       </c>
       <c r="F42">
-        <v>0.313606825577201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8971659532147512</v>
+      </c>
+      <c r="G42">
+        <v>0.1976051492611971</v>
+      </c>
+      <c r="H42">
+        <v>0.001828154986200657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002922934884159981</v>
+        <v>0.01419293572690555</v>
       </c>
       <c r="C43">
-        <v>-0.0003080318021124218</v>
+        <v>-0.003188118354787684</v>
       </c>
       <c r="D43">
-        <v>0.013360473712329</v>
+        <v>-0.0103792631553567</v>
       </c>
       <c r="E43">
-        <v>0.004140603766518277</v>
+        <v>0.002355456485905681</v>
       </c>
       <c r="F43">
-        <v>-0.03644419534386783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003653341197566314</v>
+      </c>
+      <c r="G43">
+        <v>-0.003611575732543221</v>
+      </c>
+      <c r="H43">
+        <v>0.008840081682988466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02021494003176389</v>
+        <v>0.01829952159275943</v>
       </c>
       <c r="C44">
-        <v>-0.002701194098701802</v>
+        <v>0.006688676598834448</v>
       </c>
       <c r="D44">
-        <v>0.01740146131025029</v>
+        <v>0.03619970300248489</v>
       </c>
       <c r="E44">
-        <v>0.009831198951428175</v>
+        <v>-0.006335953405252792</v>
       </c>
       <c r="F44">
-        <v>-0.1161852218072837</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.002447728311238848</v>
+      </c>
+      <c r="G44">
+        <v>-0.04290828738779823</v>
+      </c>
+      <c r="H44">
+        <v>0.0672737985983109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02123052777756905</v>
+        <v>0.014188250205683</v>
       </c>
       <c r="C46">
-        <v>0.01432598590032465</v>
+        <v>-0.004393837701468131</v>
       </c>
       <c r="D46">
-        <v>0.02470599039413143</v>
+        <v>0.01502397380111202</v>
       </c>
       <c r="E46">
-        <v>0.0390652772197395</v>
+        <v>-0.0003551274417231432</v>
       </c>
       <c r="F46">
-        <v>-0.07621615289947022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01216432257550685</v>
+      </c>
+      <c r="G46">
+        <v>-0.04445164185934129</v>
+      </c>
+      <c r="H46">
+        <v>0.007721983515452426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09320619457471213</v>
+        <v>0.07203778775217531</v>
       </c>
       <c r="C47">
-        <v>0.03087334221548996</v>
+        <v>0.02901390681348746</v>
       </c>
       <c r="D47">
-        <v>-0.001730172212160173</v>
+        <v>0.05155539903405475</v>
       </c>
       <c r="E47">
-        <v>0.03209459199884806</v>
+        <v>-0.002085350434637636</v>
       </c>
       <c r="F47">
-        <v>-0.04033421710983804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01500085891457097</v>
+      </c>
+      <c r="G47">
+        <v>0.007898712723452595</v>
+      </c>
+      <c r="H47">
+        <v>-0.02318118042111535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01968799757723379</v>
+        <v>0.01994618434433907</v>
       </c>
       <c r="C48">
-        <v>0.008075748851632274</v>
+        <v>0.005753392603882829</v>
       </c>
       <c r="D48">
-        <v>0.01455435953556767</v>
+        <v>0.01315517751589902</v>
       </c>
       <c r="E48">
-        <v>0.02295948250717163</v>
+        <v>-0.001197680784814834</v>
       </c>
       <c r="F48">
-        <v>-0.04126245510530519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007203356962900266</v>
+      </c>
+      <c r="G48">
+        <v>-0.02293931684326351</v>
+      </c>
+      <c r="H48">
+        <v>0.01884230645252818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08952763948170124</v>
+        <v>0.06999959978328821</v>
       </c>
       <c r="C50">
-        <v>0.02953886002639324</v>
+        <v>0.02599684475514309</v>
       </c>
       <c r="D50">
-        <v>0.02373439595492037</v>
+        <v>0.05088947714474147</v>
       </c>
       <c r="E50">
-        <v>0.03146626245554467</v>
+        <v>-0.01477056940822406</v>
       </c>
       <c r="F50">
-        <v>-0.04099908517110984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.004506413087661551</v>
+      </c>
+      <c r="G50">
+        <v>-0.005410937474964055</v>
+      </c>
+      <c r="H50">
+        <v>-0.006855656565261147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01757661452791894</v>
+        <v>0.01964995707168377</v>
       </c>
       <c r="C51">
-        <v>-0.001974791226542353</v>
+        <v>-0.0004807823611752783</v>
       </c>
       <c r="D51">
-        <v>-0.001900752814945766</v>
+        <v>0.008949194302601002</v>
       </c>
       <c r="E51">
-        <v>-0.008732175282593754</v>
+        <v>-0.00651507944305661</v>
       </c>
       <c r="F51">
-        <v>-0.100278027640689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.004674287372149048</v>
+      </c>
+      <c r="G51">
+        <v>-0.03928982279610668</v>
+      </c>
+      <c r="H51">
+        <v>0.05141220225397639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09882925904165719</v>
+        <v>0.08339096142841559</v>
       </c>
       <c r="C53">
-        <v>0.03928988434268819</v>
+        <v>0.03721828202083559</v>
       </c>
       <c r="D53">
-        <v>0.002282723627211331</v>
+        <v>0.08815798455366353</v>
       </c>
       <c r="E53">
-        <v>0.0476202794777415</v>
+        <v>-0.00483944706640215</v>
       </c>
       <c r="F53">
-        <v>0.02752968732701525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02965513722382964</v>
+      </c>
+      <c r="G53">
+        <v>0.03800370144119704</v>
+      </c>
+      <c r="H53">
+        <v>-0.03594775994725852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01836187908753734</v>
+        <v>0.02974703473150053</v>
       </c>
       <c r="C54">
-        <v>-0.005017550463990108</v>
+        <v>0.008068385079469532</v>
       </c>
       <c r="D54">
-        <v>0.003010291774500295</v>
+        <v>-0.01214302539858321</v>
       </c>
       <c r="E54">
-        <v>0.03408671647621391</v>
+        <v>-0.007226830035936861</v>
       </c>
       <c r="F54">
-        <v>-0.05017400941228267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.006634458438160431</v>
+      </c>
+      <c r="G54">
+        <v>-0.03936909592718119</v>
+      </c>
+      <c r="H54">
+        <v>0.001835063953548169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1014095906043976</v>
+        <v>0.07064521609579802</v>
       </c>
       <c r="C55">
-        <v>0.02027970968092907</v>
+        <v>0.03378173198115825</v>
       </c>
       <c r="D55">
-        <v>0.009584557780702855</v>
+        <v>0.08218357536907391</v>
       </c>
       <c r="E55">
-        <v>0.06651067939675526</v>
+        <v>-0.01252244237493345</v>
       </c>
       <c r="F55">
-        <v>0.01910203728161587</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02152729127958722</v>
+      </c>
+      <c r="G55">
+        <v>0.01534895799523331</v>
+      </c>
+      <c r="H55">
+        <v>-0.04528951430626173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1422137377916796</v>
+        <v>0.1184280638263606</v>
       </c>
       <c r="C56">
-        <v>0.05558468324070882</v>
+        <v>0.05546349280203289</v>
       </c>
       <c r="D56">
-        <v>-0.03404024750940923</v>
+        <v>0.1058963364397265</v>
       </c>
       <c r="E56">
-        <v>0.07543445227787458</v>
+        <v>-0.004768672267202606</v>
       </c>
       <c r="F56">
-        <v>0.06075915786008095</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05293462411079602</v>
+      </c>
+      <c r="G56">
+        <v>0.07186293642938231</v>
+      </c>
+      <c r="H56">
+        <v>-0.0614338986981338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0493048438753147</v>
+        <v>0.03573948393742088</v>
       </c>
       <c r="C57">
-        <v>0.02039315392154147</v>
+        <v>-0.01085243796395269</v>
       </c>
       <c r="D57">
-        <v>0.01219068466102209</v>
+        <v>0.03328122683191347</v>
       </c>
       <c r="E57">
-        <v>-0.006786304921844504</v>
+        <v>0.01092252744709126</v>
       </c>
       <c r="F57">
-        <v>-0.05860898820355272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.007839634709154344</v>
+      </c>
+      <c r="G57">
+        <v>-0.07155202392202316</v>
+      </c>
+      <c r="H57">
+        <v>0.04997676030636214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2185872211282687</v>
+        <v>0.1378988060996294</v>
       </c>
       <c r="C58">
-        <v>0.1101101218779741</v>
+        <v>0.04910158482131332</v>
       </c>
       <c r="D58">
-        <v>0.116816768202932</v>
+        <v>0.1545183567053543</v>
       </c>
       <c r="E58">
-        <v>0.08191514047453</v>
+        <v>0.2187233476070455</v>
       </c>
       <c r="F58">
-        <v>-0.3724155967801966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07195190276334144</v>
+      </c>
+      <c r="G58">
+        <v>-0.811678878705008</v>
+      </c>
+      <c r="H58">
+        <v>-0.3928913904554216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05404176652610615</v>
+        <v>0.1735078339979584</v>
       </c>
       <c r="C59">
-        <v>-0.04242555391452749</v>
+        <v>-0.002182277946903611</v>
       </c>
       <c r="D59">
-        <v>-0.1241756259898331</v>
+        <v>-0.2099783342089784</v>
       </c>
       <c r="E59">
-        <v>-0.1388869624175257</v>
+        <v>0.003930375879401323</v>
       </c>
       <c r="F59">
-        <v>-0.07595036881322498</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001544710166613233</v>
+      </c>
+      <c r="G59">
+        <v>-0.01910348573125363</v>
+      </c>
+      <c r="H59">
+        <v>0.02957400524782765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1535080355537493</v>
+        <v>0.1936912354325128</v>
       </c>
       <c r="C60">
-        <v>0.08592807618213792</v>
+        <v>0.02803607205071218</v>
       </c>
       <c r="D60">
-        <v>0.01685050505949669</v>
+        <v>0.028555324550353</v>
       </c>
       <c r="E60">
-        <v>-0.08849808581634787</v>
+        <v>0.05401500321309772</v>
       </c>
       <c r="F60">
-        <v>-0.1682030966925571</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05361770432682939</v>
+      </c>
+      <c r="G60">
+        <v>-0.02455569436148606</v>
+      </c>
+      <c r="H60">
+        <v>0.3679601840259134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02462386300521442</v>
+        <v>0.02133149967222485</v>
       </c>
       <c r="C61">
-        <v>0.02285099557821089</v>
+        <v>0.01216311985384448</v>
       </c>
       <c r="D61">
-        <v>0.01814436823475373</v>
+        <v>0.05506999172384384</v>
       </c>
       <c r="E61">
-        <v>0.02789891427284954</v>
+        <v>-0.001426702435574257</v>
       </c>
       <c r="F61">
-        <v>-0.03652654422167338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02149261572415776</v>
+      </c>
+      <c r="G61">
+        <v>-0.02511388730385909</v>
+      </c>
+      <c r="H61">
+        <v>0.05961503383061866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01112689715218884</v>
+        <v>0.01140001437435718</v>
       </c>
       <c r="C63">
-        <v>0.01652984494207495</v>
+        <v>-0.000635560574551005</v>
       </c>
       <c r="D63">
-        <v>0.02243478478988009</v>
+        <v>0.02395021336132101</v>
       </c>
       <c r="E63">
-        <v>0.02635649432958568</v>
+        <v>-0.005404232914011333</v>
       </c>
       <c r="F63">
-        <v>-0.01575773082165992</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01119441600913765</v>
+      </c>
+      <c r="G63">
+        <v>-0.01724886153454551</v>
+      </c>
+      <c r="H63">
+        <v>0.01346644596829742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04016202634832932</v>
+        <v>0.03870977596917888</v>
       </c>
       <c r="C64">
-        <v>-0.005065035604188922</v>
+        <v>0.01124667625156691</v>
       </c>
       <c r="D64">
-        <v>0.008240809351406989</v>
+        <v>0.04112972126530841</v>
       </c>
       <c r="E64">
-        <v>0.05485808618634846</v>
+        <v>-0.01166043368421859</v>
       </c>
       <c r="F64">
-        <v>-0.04405815931677084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003546502630978104</v>
+      </c>
+      <c r="G64">
+        <v>-0.00614129555630014</v>
+      </c>
+      <c r="H64">
+        <v>0.04217144820817818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0393303382467161</v>
+        <v>0.03835543228558615</v>
       </c>
       <c r="C65">
-        <v>0.0127760532409291</v>
+        <v>0.004792686757158472</v>
       </c>
       <c r="D65">
-        <v>0.008121480427305698</v>
+        <v>0.07128872558540299</v>
       </c>
       <c r="E65">
-        <v>0.0286282407595465</v>
+        <v>-0.005342810470760385</v>
       </c>
       <c r="F65">
-        <v>-0.008482623114579589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03828357727870088</v>
+      </c>
+      <c r="G65">
+        <v>0.005328935499900464</v>
+      </c>
+      <c r="H65">
+        <v>0.07383679979128291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0387008211850503</v>
+        <v>0.02420440477457087</v>
       </c>
       <c r="C66">
-        <v>0.05522425341686134</v>
+        <v>0.01848690516901312</v>
       </c>
       <c r="D66">
-        <v>0.02383088207168863</v>
+        <v>0.1092577762245617</v>
       </c>
       <c r="E66">
-        <v>0.05064360165098539</v>
+        <v>0.01086435796428974</v>
       </c>
       <c r="F66">
-        <v>-0.05921101110529279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03910171995425291</v>
+      </c>
+      <c r="G66">
+        <v>-0.03658771710825384</v>
+      </c>
+      <c r="H66">
+        <v>0.08293840709901544</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01431116901600919</v>
+        <v>0.04573032632200148</v>
       </c>
       <c r="C67">
-        <v>0.009348858575328151</v>
+        <v>0.01818964415093043</v>
       </c>
       <c r="D67">
-        <v>0.006406163806423858</v>
+        <v>0.01512111657890171</v>
       </c>
       <c r="E67">
-        <v>-0.03055754251648976</v>
+        <v>0.004060641543282323</v>
       </c>
       <c r="F67">
-        <v>-0.02774471724970037</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.018547813093408</v>
+      </c>
+      <c r="G67">
+        <v>-0.01247515804396703</v>
+      </c>
+      <c r="H67">
+        <v>0.04498164107521623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07177036621254558</v>
+        <v>0.1701764261013805</v>
       </c>
       <c r="C68">
-        <v>-0.06428917298351487</v>
+        <v>-0.02644393508272597</v>
       </c>
       <c r="D68">
-        <v>-0.1385659717913432</v>
+        <v>-0.2285652696336106</v>
       </c>
       <c r="E68">
-        <v>-0.1421604911311423</v>
+        <v>0.002234102382743037</v>
       </c>
       <c r="F68">
-        <v>-0.05353543664664663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03957516702876323</v>
+      </c>
+      <c r="G68">
+        <v>-0.02863719869630777</v>
+      </c>
+      <c r="H68">
+        <v>-0.0495611571560144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06734581622845599</v>
+        <v>0.0599387753004471</v>
       </c>
       <c r="C69">
-        <v>0.04214473738304884</v>
+        <v>0.02976057737297928</v>
       </c>
       <c r="D69">
-        <v>-0.01367212529657923</v>
+        <v>0.0473657145266526</v>
       </c>
       <c r="E69">
-        <v>0.0267001254630314</v>
+        <v>-0.0009070814764843433</v>
       </c>
       <c r="F69">
-        <v>-0.03258443861645959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02941016039103431</v>
+      </c>
+      <c r="G69">
+        <v>0.01217876051514433</v>
+      </c>
+      <c r="H69">
+        <v>0.008293954620969197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0753928295200008</v>
+        <v>0.1576771771718878</v>
       </c>
       <c r="C71">
-        <v>-0.06391575355201509</v>
+        <v>-0.01268952869460201</v>
       </c>
       <c r="D71">
-        <v>-0.1243069496034039</v>
+        <v>-0.1886870581447556</v>
       </c>
       <c r="E71">
-        <v>-0.1951833059543528</v>
+        <v>0.009746359713201314</v>
       </c>
       <c r="F71">
-        <v>-0.05436942498328284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04714440361360352</v>
+      </c>
+      <c r="G71">
+        <v>-0.03187565264450735</v>
+      </c>
+      <c r="H71">
+        <v>-0.02262173505400415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1162409465175941</v>
+        <v>0.07406242029392766</v>
       </c>
       <c r="C72">
-        <v>0.06837226450427354</v>
+        <v>0.04021425161341141</v>
       </c>
       <c r="D72">
-        <v>-0.0171130442261569</v>
+        <v>0.08122266087882266</v>
       </c>
       <c r="E72">
-        <v>0.05060841468212796</v>
+        <v>0.01637744283436936</v>
       </c>
       <c r="F72">
-        <v>-0.07232909205422017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06591420308682723</v>
+      </c>
+      <c r="G72">
+        <v>-0.01986593407595303</v>
+      </c>
+      <c r="H72">
+        <v>0.133099772996128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2205210591415843</v>
+        <v>0.2557896628976025</v>
       </c>
       <c r="C73">
-        <v>0.1174831629472259</v>
+        <v>0.04286713233726764</v>
       </c>
       <c r="D73">
-        <v>0.01376316509047941</v>
+        <v>0.09622506389237324</v>
       </c>
       <c r="E73">
-        <v>-0.1784120855271536</v>
+        <v>0.09452635303064549</v>
       </c>
       <c r="F73">
-        <v>-0.2060502802072821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.05866423095023213</v>
+      </c>
+      <c r="G73">
+        <v>-0.03968135996841715</v>
+      </c>
+      <c r="H73">
+        <v>0.4790299784080125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1338715448708726</v>
+        <v>0.1140543828241013</v>
       </c>
       <c r="C74">
-        <v>0.03679140414979535</v>
+        <v>0.05457700801367356</v>
       </c>
       <c r="D74">
-        <v>-0.01086076993618687</v>
+        <v>0.1101355311810842</v>
       </c>
       <c r="E74">
-        <v>0.05034671503592084</v>
+        <v>-0.006922153138330623</v>
       </c>
       <c r="F74">
-        <v>0.07380811974680082</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03857831174042618</v>
+      </c>
+      <c r="G74">
+        <v>0.0585959548532604</v>
+      </c>
+      <c r="H74">
+        <v>-0.0269613794248994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2252911104632452</v>
+        <v>0.2246355981517818</v>
       </c>
       <c r="C75">
-        <v>0.1028847459344229</v>
+        <v>0.1006541973190914</v>
       </c>
       <c r="D75">
-        <v>-0.07442517101361422</v>
+        <v>0.1668208697162249</v>
       </c>
       <c r="E75">
-        <v>0.1064379633492288</v>
+        <v>0.01156756654033611</v>
       </c>
       <c r="F75">
-        <v>0.09752866306375195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09842288372149391</v>
+      </c>
+      <c r="G75">
+        <v>0.1215090258289284</v>
+      </c>
+      <c r="H75">
+        <v>-0.1358610200574926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2791944931903884</v>
+        <v>0.186433877982941</v>
       </c>
       <c r="C76">
-        <v>0.0886755067807295</v>
+        <v>0.09329837744221482</v>
       </c>
       <c r="D76">
-        <v>-0.10105436033095</v>
+        <v>0.168171648177587</v>
       </c>
       <c r="E76">
-        <v>0.1621673865978375</v>
+        <v>-0.03706047142006392</v>
       </c>
       <c r="F76">
-        <v>0.1716596179928294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09135169542873843</v>
+      </c>
+      <c r="G76">
+        <v>0.1166971698960835</v>
+      </c>
+      <c r="H76">
+        <v>-0.1333418005908434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1249966688118412</v>
+        <v>0.06824840312492562</v>
       </c>
       <c r="C77">
-        <v>0.06635321877107481</v>
+        <v>0.01531003038372756</v>
       </c>
       <c r="D77">
-        <v>0.1027486083200756</v>
+        <v>0.08245970074867097</v>
       </c>
       <c r="E77">
-        <v>0.03193498999961923</v>
+        <v>0.0159906566921309</v>
       </c>
       <c r="F77">
-        <v>-0.1759561368075389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01459818359285236</v>
+      </c>
+      <c r="G77">
+        <v>-0.08276265758167491</v>
+      </c>
+      <c r="H77">
+        <v>0.01330956791997215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07671624501515564</v>
+        <v>0.03717351488666763</v>
       </c>
       <c r="C78">
-        <v>0.03464625502004587</v>
+        <v>0.01567311842310411</v>
       </c>
       <c r="D78">
-        <v>0.05875408186961122</v>
+        <v>0.06915522824106944</v>
       </c>
       <c r="E78">
-        <v>0.07191437855929637</v>
+        <v>-0.0009864160591617757</v>
       </c>
       <c r="F78">
-        <v>-0.1055680062977145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02083211699221538</v>
+      </c>
+      <c r="G78">
+        <v>-0.06499231871428078</v>
+      </c>
+      <c r="H78">
+        <v>0.08567249283386295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2751073474522854</v>
+        <v>0.1300411355674558</v>
       </c>
       <c r="C80">
-        <v>-0.8816138846575107</v>
+        <v>0.03678910564126211</v>
       </c>
       <c r="D80">
-        <v>0.09528917625747023</v>
+        <v>0.1020261162144704</v>
       </c>
       <c r="E80">
-        <v>0.3110975116348238</v>
+        <v>-0.9302939069637239</v>
       </c>
       <c r="F80">
-        <v>-0.04798804467587467</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2283108928567059</v>
+      </c>
+      <c r="G80">
+        <v>-0.1555943248267545</v>
+      </c>
+      <c r="H80">
+        <v>0.005482206241690491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1785181046971185</v>
+        <v>0.149299253241778</v>
       </c>
       <c r="C81">
-        <v>0.06821900454774502</v>
+        <v>0.06597660696495997</v>
       </c>
       <c r="D81">
-        <v>-0.07957405608451534</v>
+        <v>0.1093235716745578</v>
       </c>
       <c r="E81">
-        <v>0.0926784654619692</v>
+        <v>-0.01060702611807757</v>
       </c>
       <c r="F81">
-        <v>0.1095408534528805</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06637941941968847</v>
+      </c>
+      <c r="G81">
+        <v>0.08202842648534958</v>
+      </c>
+      <c r="H81">
+        <v>-0.08801731107273468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03710899964295365</v>
+        <v>0.03275570462468171</v>
       </c>
       <c r="C83">
-        <v>0.0264184224592453</v>
+        <v>0.006612115377470284</v>
       </c>
       <c r="D83">
-        <v>0.02097188750237918</v>
+        <v>0.02461414307212347</v>
       </c>
       <c r="E83">
-        <v>0.001318700270432726</v>
+        <v>0.00882165448404716</v>
       </c>
       <c r="F83">
-        <v>-0.07393229108313537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01006366691659955</v>
+      </c>
+      <c r="G83">
+        <v>-0.04742581570258251</v>
+      </c>
+      <c r="H83">
+        <v>0.04227354262903724</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.262626344986809</v>
+        <v>0.2094261099498195</v>
       </c>
       <c r="C85">
-        <v>0.08514434333172072</v>
+        <v>0.0851039558123443</v>
       </c>
       <c r="D85">
-        <v>-0.07743944583594697</v>
+        <v>0.1733219688673917</v>
       </c>
       <c r="E85">
-        <v>0.1209109882531325</v>
+        <v>0.005400167569618078</v>
       </c>
       <c r="F85">
-        <v>0.1179504649216828</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07976451916688458</v>
+      </c>
+      <c r="G85">
+        <v>0.1366171642243274</v>
+      </c>
+      <c r="H85">
+        <v>-0.09498517947562404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01227558962376898</v>
+        <v>0.02428097210086334</v>
       </c>
       <c r="C86">
-        <v>0.006621492736478436</v>
+        <v>0.004511484791779757</v>
       </c>
       <c r="D86">
-        <v>0.03856385579017813</v>
+        <v>0.03717371170049615</v>
       </c>
       <c r="E86">
-        <v>0.02936535918865623</v>
+        <v>0.0003083509956251387</v>
       </c>
       <c r="F86">
-        <v>-0.08229822218120855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.00378143029575693</v>
+      </c>
+      <c r="G86">
+        <v>-0.05611138820921334</v>
+      </c>
+      <c r="H86">
+        <v>0.09349228461298048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0454492180214903</v>
+        <v>0.02413658871366657</v>
       </c>
       <c r="C87">
-        <v>1.563096858000645e-05</v>
+        <v>0.005472003257979036</v>
       </c>
       <c r="D87">
-        <v>0.02862256749838471</v>
+        <v>0.04839123022842676</v>
       </c>
       <c r="E87">
-        <v>0.01347336563923231</v>
+        <v>-0.003699212733920972</v>
       </c>
       <c r="F87">
-        <v>-0.1180221427147758</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005341122338129173</v>
+      </c>
+      <c r="G87">
+        <v>-0.08107694746329355</v>
+      </c>
+      <c r="H87">
+        <v>0.0815458114590607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01437979291532254</v>
+        <v>0.04311277189509004</v>
       </c>
       <c r="C88">
-        <v>-0.006814300457779993</v>
+        <v>-0.009512970353189763</v>
       </c>
       <c r="D88">
-        <v>-0.0177208570144469</v>
+        <v>0.02005684445586398</v>
       </c>
       <c r="E88">
-        <v>0.01598772143140241</v>
+        <v>-0.0120411762706441</v>
       </c>
       <c r="F88">
-        <v>-0.0008579207241099945</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01868520339415822</v>
+      </c>
+      <c r="G88">
+        <v>-0.000540440108175055</v>
+      </c>
+      <c r="H88">
+        <v>0.01946114623221209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1016637174745644</v>
+        <v>0.274536705345715</v>
       </c>
       <c r="C89">
-        <v>-0.09061237147091869</v>
+        <v>-0.02497122158136909</v>
       </c>
       <c r="D89">
-        <v>-0.2108362254575294</v>
+        <v>-0.3386980174976062</v>
       </c>
       <c r="E89">
-        <v>-0.2469430694580827</v>
+        <v>0.009812842315363257</v>
       </c>
       <c r="F89">
-        <v>-0.0942538197459237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02609423006555649</v>
+      </c>
+      <c r="G89">
+        <v>0.001931733581066003</v>
+      </c>
+      <c r="H89">
+        <v>0.01037022596256131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08582520995047198</v>
+        <v>0.2251193169369665</v>
       </c>
       <c r="C90">
-        <v>-0.1327691574543124</v>
+        <v>-0.02393866334877903</v>
       </c>
       <c r="D90">
-        <v>-0.233118639571329</v>
+        <v>-0.3105343894901225</v>
       </c>
       <c r="E90">
-        <v>-0.2524374395415979</v>
+        <v>0.004445501641749093</v>
       </c>
       <c r="F90">
-        <v>-0.05059678991943948</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05175820245919583</v>
+      </c>
+      <c r="G90">
+        <v>0.008916192100337705</v>
+      </c>
+      <c r="H90">
+        <v>-0.05345621654850018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3021541495776435</v>
+        <v>0.2237686671467549</v>
       </c>
       <c r="C91">
-        <v>0.1297493797027975</v>
+        <v>0.0972108123648541</v>
       </c>
       <c r="D91">
-        <v>-0.08306441213368186</v>
+        <v>0.1549522832694145</v>
       </c>
       <c r="E91">
-        <v>0.1117984330674585</v>
+        <v>0.01112721027951002</v>
       </c>
       <c r="F91">
-        <v>0.2344407905479881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08342208840539</v>
+      </c>
+      <c r="G91">
+        <v>0.1427767434562568</v>
+      </c>
+      <c r="H91">
+        <v>-0.1703646640107201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1697956016221401</v>
+        <v>0.2622745729156475</v>
       </c>
       <c r="C92">
-        <v>-0.0719452378756128</v>
+        <v>0.04495902625408781</v>
       </c>
       <c r="D92">
-        <v>-0.3901767321716018</v>
+        <v>-0.2283729095368781</v>
       </c>
       <c r="E92">
-        <v>-0.1828362098359369</v>
+        <v>-0.01156436869538708</v>
       </c>
       <c r="F92">
-        <v>0.05997745998468327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01628506718560505</v>
+      </c>
+      <c r="G92">
+        <v>-0.02017313184424654</v>
+      </c>
+      <c r="H92">
+        <v>-0.1114980426540915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09088542453495287</v>
+        <v>0.2489961881254309</v>
       </c>
       <c r="C93">
-        <v>-0.114444783874784</v>
+        <v>-0.01452842842041834</v>
       </c>
       <c r="D93">
-        <v>-0.2744693852908432</v>
+        <v>-0.3150856214104769</v>
       </c>
       <c r="E93">
-        <v>-0.3502500074206171</v>
+        <v>0.02583765251763769</v>
       </c>
       <c r="F93">
-        <v>-0.01530365067405996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05384560689482239</v>
+      </c>
+      <c r="G93">
+        <v>0.005852243412637803</v>
+      </c>
+      <c r="H93">
+        <v>0.0113708495086616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2955468724497379</v>
+        <v>0.2735107309251176</v>
       </c>
       <c r="C94">
-        <v>0.1530647205935169</v>
+        <v>0.09254318040113205</v>
       </c>
       <c r="D94">
-        <v>-0.168303010086409</v>
+        <v>0.1550372304927097</v>
       </c>
       <c r="E94">
-        <v>0.1560367649733086</v>
+        <v>0.03134583220494043</v>
       </c>
       <c r="F94">
-        <v>0.1756414882664325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1836507467253058</v>
+      </c>
+      <c r="G94">
+        <v>0.2334955033591832</v>
+      </c>
+      <c r="H94">
+        <v>-0.2885671295903613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05137508359168649</v>
+        <v>0.05182992056500051</v>
       </c>
       <c r="C95">
-        <v>0.04090875361342834</v>
+        <v>0.03528066696376807</v>
       </c>
       <c r="D95">
-        <v>0.05630058264488717</v>
+        <v>0.08499135266645989</v>
       </c>
       <c r="E95">
-        <v>0.0584872072936341</v>
+        <v>0.08360651438642974</v>
       </c>
       <c r="F95">
-        <v>-0.06632192226247664</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.006690090096825831</v>
+      </c>
+      <c r="G95">
+        <v>-0.04960222729891184</v>
+      </c>
+      <c r="H95">
+        <v>0.05433057622150397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1592133343472315</v>
+        <v>0.181382399239755</v>
       </c>
       <c r="C98">
-        <v>0.06825870974944871</v>
+        <v>0.0563383878548247</v>
       </c>
       <c r="D98">
-        <v>0.01697498189778653</v>
+        <v>0.04355417097226053</v>
       </c>
       <c r="E98">
-        <v>-0.1441312565725087</v>
+        <v>0.05872551687527391</v>
       </c>
       <c r="F98">
-        <v>-0.1194151333632855</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.008650710608252248</v>
+      </c>
+      <c r="G98">
+        <v>-0.07829005639422193</v>
+      </c>
+      <c r="H98">
+        <v>0.3396194556170852</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009779178787527633</v>
+        <v>0.0164975863461307</v>
       </c>
       <c r="C101">
-        <v>0.01081479194075485</v>
+        <v>0.0006810463638032757</v>
       </c>
       <c r="D101">
-        <v>0.0290590855498534</v>
+        <v>0.01606814495493849</v>
       </c>
       <c r="E101">
-        <v>0.07416272880408872</v>
+        <v>-0.004107068107505239</v>
       </c>
       <c r="F101">
-        <v>-0.1705153518374553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01932929846059796</v>
+      </c>
+      <c r="G101">
+        <v>-0.1023872250886599</v>
+      </c>
+      <c r="H101">
+        <v>-0.02177298873732928</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.115394434554866</v>
+        <v>0.09853828461654164</v>
       </c>
       <c r="C102">
-        <v>0.04539434955734818</v>
+        <v>0.0337821843621471</v>
       </c>
       <c r="D102">
-        <v>-0.02976481781885401</v>
+        <v>0.08589681647088686</v>
       </c>
       <c r="E102">
-        <v>0.06983867328843657</v>
+        <v>-0.002891939369743619</v>
       </c>
       <c r="F102">
-        <v>0.08298615847294664</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.046314678046763</v>
+      </c>
+      <c r="G102">
+        <v>0.07443531331871193</v>
+      </c>
+      <c r="H102">
+        <v>-0.06457650680554215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04286403444516051</v>
+        <v>0.01469060917477094</v>
       </c>
       <c r="C103">
-        <v>0.003625270837734293</v>
+        <v>0.00624539216207572</v>
       </c>
       <c r="D103">
-        <v>-0.007141652311456696</v>
+        <v>0.01504360663134358</v>
       </c>
       <c r="E103">
-        <v>0.04962124318604851</v>
+        <v>-0.01016955738210566</v>
       </c>
       <c r="F103">
-        <v>-0.005483192556138439</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.007064736317304477</v>
+      </c>
+      <c r="G103">
+        <v>-0.0005331207830370222</v>
+      </c>
+      <c r="H103">
+        <v>-0.01098616088451635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1777459494305679</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9559961222126786</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1591672661800598</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02831416777713278</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1300234004839778</v>
+      </c>
+      <c r="G104">
+        <v>0.01353721334266882</v>
+      </c>
+      <c r="H104">
+        <v>-0.04860214407309892</v>
       </c>
     </row>
   </sheetData>
